--- a/ueq_data.xlsx
+++ b/ueq_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranjalibarve/Desktop/UEQAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A962EFC0-3BE1-E44C-ABEE-5C2F6840DAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EFEBDA-3F21-CA4A-A93E-F1A5F3B65673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{EA832649-F1F3-5F4C-BE80-9EF0764EAAC5}"/>
+    <workbookView xWindow="480" yWindow="860" windowWidth="28040" windowHeight="15800" xr2:uid="{EA832649-F1F3-5F4C-BE80-9EF0764EAAC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,19 +66,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,12 +83,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -103,7 +112,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +450,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,28 +483,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -506,22 +515,22 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -532,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
@@ -544,15 +553,15 @@
         <v>6</v>
       </c>
       <c r="G4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -561,10 +570,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -573,30 +582,30 @@
         <v>6</v>
       </c>
       <c r="H5" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1">
         <v>5</v>
@@ -607,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -622,7 +631,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
@@ -633,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
@@ -642,16 +651,16 @@
         <v>6</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -662,22 +671,22 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H9" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -694,13 +703,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
         <v>6</v>
       </c>
       <c r="G10" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H10" s="1">
         <v>5</v>
@@ -714,10 +723,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1">
         <v>6</v>
@@ -734,28 +743,28 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H12" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -763,10 +772,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
@@ -781,33 +790,33 @@
         <v>5</v>
       </c>
       <c r="H13" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1">
         <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1">
         <v>7</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
